--- a/VersionRecords/Version 3.2.0.2/版本Bug和特性计划及评审表v3.2.0.1_发现组.xlsx
+++ b/VersionRecords/Version 3.2.0.2/版本Bug和特性计划及评审表v3.2.0.1_发现组.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mogoDoc\Mogo_Doc\VersionRecords\Version 3.2.0.2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19065" windowHeight="7830"/>
   </bookViews>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
   <si>
     <t>No</t>
   </si>
@@ -169,6 +164,26 @@
   </si>
   <si>
     <t>PC</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>余星赞</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>邵明基</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pass</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -890,7 +905,7 @@
   <dimension ref="A1:T202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1003,10 +1018,18 @@
       <c r="K2" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="24"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="33"/>
+      <c r="L2" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="N2" s="30">
+        <v>42551</v>
+      </c>
+      <c r="O2" s="33" t="s">
+        <v>51</v>
+      </c>
       <c r="P2" s="36"/>
       <c r="Q2" s="36"/>
       <c r="R2" s="36"/>
@@ -1039,10 +1062,18 @@
       <c r="K3" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="24"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="33"/>
+      <c r="L3" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="M3" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="N3" s="30">
+        <v>42551</v>
+      </c>
+      <c r="O3" s="33" t="s">
+        <v>52</v>
+      </c>
       <c r="P3" s="28"/>
       <c r="Q3" s="28"/>
       <c r="R3" s="28"/>
